--- a/Reports/Template-SEO-audit-1.xlsx
+++ b/Reports/Template-SEO-audit-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferry\Documents\P4-sanchez-fernando\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DD3F0A8-E019-43C3-A499-91869B0C1CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF8A83AA-380A-43E1-B8B9-5AD40670723D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7050" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Category</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Reference</t>
-  </si>
-  <si>
-    <t>Accessibility</t>
   </si>
   <si>
     <t>Background and foreground colors do not have a sufficient contrast ratio.</t>
@@ -574,7 +571,7 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1"/>
@@ -630,179 +627,179 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
@@ -812,7 +809,7 @@
       <c r="D11" s="7"/>
       <c r="E11" s="13"/>
       <c r="F11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1"/>
